--- a/student registration/Student_data.xlsx
+++ b/student registration/Student_data.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -734,6 +734,66 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arpit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02-03-2006</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10/03/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hindu</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>developer</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Rohit Sangwan</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Sunesh</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Govt. job</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Home Maker</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
